--- a/sample_data/two_monomer_systems/pdb-5-063.xlsx
+++ b/sample_data/two_monomer_systems/pdb-5-063.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suprajachittari/Documents/GitHub/prism/sample_data/two_monomer_systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA023E7-9886-374E-8794-4A9C857CFC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB60A46-6F66-5E4E-A960-1A668135C408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50400" yWindow="2760" windowWidth="28800" windowHeight="16020" xr2:uid="{3567584D-2EA3-42F9-B6B0-BE115D4FDBF5}"/>
+    <workbookView xWindow="43180" yWindow="6060" windowWidth="28800" windowHeight="16020" xr2:uid="{3567584D-2EA3-42F9-B6B0-BE115D4FDBF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -2412,343 +2412,343 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="115"/>
                 <c:pt idx="2">
-                  <c:v>0.33421811505710097</c:v>
+                  <c:v>0.90766250409349425</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31916531456987135</c:v>
+                  <c:v>0.78609352563226331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30249866318834617</c:v>
+                  <c:v>0.6711475732262816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28814852180982486</c:v>
+                  <c:v>0.58411474220825776</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.27284592670772922</c:v>
+                  <c:v>0.50146518012688046</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26042328950680238</c:v>
+                  <c:v>0.4418118929336699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2462619830596085</c:v>
+                  <c:v>0.38239943089952272</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23775256209980603</c:v>
+                  <c:v>0.34084238213333334</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.22282617723546924</c:v>
+                  <c:v>0.29724211275979284</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.21283844996415605</c:v>
+                  <c:v>0.26632597918471718</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.20279072276407753</c:v>
+                  <c:v>0.23823542609050816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.19646282492411793</c:v>
+                  <c:v>0.21851809905414013</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.18967555751975368</c:v>
+                  <c:v>0.19987246166942801</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.17610148921142424</c:v>
+                  <c:v>0.17357143452527671</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.16753193746651368</c:v>
+                  <c:v>0.15477435536825884</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1608736806466205</c:v>
+                  <c:v>0.14130294671219301</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.15473415538099347</c:v>
+                  <c:v>0.13033036729655437</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1733657056360344</c:v>
+                  <c:v>0.1440841333881763</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.14142226849542702</c:v>
+                  <c:v>0.10830693452116318</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.13758742888804071</c:v>
+                  <c:v>0.10076481505283805</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.13180803037087729</c:v>
+                  <c:v>9.1922921589898135E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.12431185038861302</c:v>
+                  <c:v>8.2660342887565172E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.11850826435909464</c:v>
+                  <c:v>7.5222625029245399E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.11498643730215166</c:v>
+                  <c:v>6.9917440369830788E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.11025892452194359</c:v>
+                  <c:v>6.4170258734068092E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.10345452721362026</c:v>
+                  <c:v>5.7834786044601058E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.10015080759689261</c:v>
+                  <c:v>5.358400676187966E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.3399860941720911E-2</c:v>
+                  <c:v>4.8044050929357478E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.0106007067137797E-2</c:v>
+                  <c:v>4.4366585296685253E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.10471372517155023</c:v>
+                  <c:v>5.1072044870485146E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.145046863554864E-2</c:v>
+                  <c:v>3.6885509275511076E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.96919765768032E-2</c:v>
+                  <c:v>3.4915412040659233E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.5761515883353767E-2</c:v>
+                  <c:v>3.1877050862657574E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.9369584478200963E-2</c:v>
+                  <c:v>2.8117280556415013E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.7627095718149496E-2</c:v>
+                  <c:v>2.6597466366721823E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.5155752687238097E-2</c:v>
+                  <c:v>2.4849684838336186E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.198635141376356E-2</c:v>
+                  <c:v>2.2853548910100056E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.9806912267396525E-2</c:v>
+                  <c:v>2.1340285498492706E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.9290023563701846E-2</c:v>
+                  <c:v>2.0568006975625958E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.3020788106753175E-2</c:v>
+                  <c:v>1.7637554086093438E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.2390733037211173E-2</c:v>
+                  <c:v>1.6808992108724888E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.6076738183131141E-2</c:v>
+                  <c:v>1.4241185968668413E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.5492790658288748E-2</c:v>
+                  <c:v>1.3656194745385167E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.2518337357029437E-2</c:v>
+                  <c:v>1.2404281474610283E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.160110103070596E-2</c:v>
+                  <c:v>1.1846017358576894E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.9970009358718521E-2</c:v>
+                  <c:v>1.100130509271186E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.7165704293472171E-2</c:v>
+                  <c:v>9.9441395617507929E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.2437334141402256E-2</c:v>
+                  <c:v>8.4504762145320503E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.3734487167391483E-2</c:v>
+                  <c:v>8.5658316557818207E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.827583222295234E-2</c:v>
+                  <c:v>9.629377424107001E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.8298924602251189E-2</c:v>
+                  <c:v>6.8229094814420879E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.4949715964775226E-2</c:v>
+                  <c:v>5.8603399380277831E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.5473868303218163E-2</c:v>
+                  <c:v>5.8547635776083733E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.237011029669991E-2</c:v>
+                  <c:v>5.0231064519818481E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.1621490755743419E-2</c:v>
+                  <c:v>4.7307453961636528E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.013715895212782E-2</c:v>
+                  <c:v>4.322321269091307E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.3799495251546336E-2</c:v>
+                  <c:v>5.0514136797079924E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.102339765720225E-2</c:v>
+                  <c:v>4.3331980132437428E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.684210603190809E-2</c:v>
+                  <c:v>3.3914336366861592E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.5433954049463038E-2</c:v>
+                  <c:v>3.0263813500247699E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.578594076172218E-2</c:v>
+                  <c:v>3.0433175717167246E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.3864851457144115E-2</c:v>
+                  <c:v>2.6087537610682793E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.3024600519790539E-2</c:v>
+                  <c:v>2.3909380604027483E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.1546450070625439E-2</c:v>
+                  <c:v>2.0772858862497653E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.3005717636318897E-2</c:v>
+                  <c:v>2.2926068490111782E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9.8204567169608466E-3</c:v>
+                  <c:v>1.6896824942154304E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.3132454146272148E-3</c:v>
+                  <c:v>8.9715819555279727E-4</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.1218420115966236E-3</c:v>
+                  <c:v>1.3466832361383419E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.7719684911756485E-3</c:v>
+                  <c:v>1.4260588850007561E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.8574967979080619E-3</c:v>
+                  <c:v>1.0940624097316067E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8.6052815270512336E-3</c:v>
+                  <c:v>1.3502985583971254E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.4714901654615203E-3</c:v>
+                  <c:v>1.1511063575668343E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.6481302223875041E-3</c:v>
+                  <c:v>5.4898791254303649E-4</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.9295504279748565E-3</c:v>
+                  <c:v>5.8140313416639E-4</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.067476278843009E-3</c:v>
+                  <c:v>3.0211173137108526E-4</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.0452658814953049E-3</c:v>
+                  <c:v>8.670429788055126E-4</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.6835342198571165E-3</c:v>
+                  <c:v>5.2052281070710761E-4</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.0008236745636563E-3</c:v>
+                  <c:v>2.7582933169674007E-4</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7.8135328061041502E-3</c:v>
+                  <c:v>1.0823925908675445E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-3.4188124522389301E-3</c:v>
+                  <c:v>-4.5461872091773144E-4</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-1.1174784832619603E-3</c:v>
+                  <c:v>-1.4653145793372676E-4</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-4.0360913508855518E-3</c:v>
+                  <c:v>-5.1962502308746739E-4</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-1.845642815085604E-3</c:v>
+                  <c:v>-2.3467007461771172E-4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-6.6168751281178023E-3</c:v>
+                  <c:v>-8.2039080079501455E-4</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-7.3358866194824079E-3</c:v>
+                  <c:v>-8.8916469985741401E-4</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-6.6584405164736224E-3</c:v>
+                  <c:v>-8.0628665237080866E-4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-6.1111134138895481E-3</c:v>
+                  <c:v>-7.2118295418131079E-4</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-8.2394258109472485E-3</c:v>
+                  <c:v>-9.5360542475682601E-4</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-7.7614445921291193E-3</c:v>
+                  <c:v>-8.8072036402100007E-4</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-9.2195214645028889E-3</c:v>
+                  <c:v>-1.0313259827952035E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-1.386268384600596E-2</c:v>
+                  <c:v>-1.5166866750557198E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-1.1336792415944106E-2</c:v>
+                  <c:v>-1.226121086291867E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-8.1058381969906241E-3</c:v>
+                  <c:v>-8.6158510311094589E-4</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-5.0339458258408139E-3</c:v>
+                  <c:v>-5.3461174408303818E-4</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-1.5826928155009752E-2</c:v>
+                  <c:v>-1.6159307071269889E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-1.4931608666268435E-2</c:v>
+                  <c:v>-1.5029023937816752E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-1.4819589640607011E-2</c:v>
+                  <c:v>-1.4645192717902447E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-1.7690027737375925E-2</c:v>
+                  <c:v>-1.7140441680575517E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-1.4113373087192427E-2</c:v>
+                  <c:v>-1.3514931653688812E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-1.2729340766806287E-2</c:v>
+                  <c:v>-1.2082021994602075E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-2.0499697144649678E-2</c:v>
+                  <c:v>-1.8919461428232487E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-1.7836658182710092E-2</c:v>
+                  <c:v>-1.6299949952690821E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-6.0341558017005777E-4</c:v>
+                  <c:v>-5.5914797575390302E-5</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-1.8959902157590729E-2</c:v>
+                  <c:v>-1.6883789173933476E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-1.8798260351551258E-2</c:v>
+                  <c:v>-1.6538679845826269E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-1.9502086927718005E-2</c:v>
+                  <c:v>-1.6933652162221861E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-1.7330274149934096E-2</c:v>
+                  <c:v>-1.4808281857825703E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-2.045026433621655E-2</c:v>
+                  <c:v>-1.7208310193532275E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-2.2254188999769532E-2</c:v>
+                  <c:v>-1.8410959424589423E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-2.8851551523789022E-2</c:v>
+                  <c:v>-2.3385365723810753E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-5.6177022749244456E-3</c:v>
+                  <c:v>-4.647515898403691E-4</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-2.5354280219634488E-2</c:v>
+                  <c:v>-1.9961397238953105E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-1.012927743543517E-2</c:v>
+                  <c:v>-8.1471333873026595E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3143,343 +3143,343 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="113"/>
                 <c:pt idx="0">
-                  <c:v>0.66578188494289892</c:v>
+                  <c:v>0.94732813832821172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68083468543012859</c:v>
+                  <c:v>0.87856572772999308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69750133681165383</c:v>
+                  <c:v>0.81079985471916205</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71185147819017514</c:v>
+                  <c:v>0.75604077043613827</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.72715407329227078</c:v>
+                  <c:v>0.70020273485190276</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73957671049319762</c:v>
+                  <c:v>0.65737754023401851</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75373801694039155</c:v>
+                  <c:v>0.6132172159480469</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.762247437900194</c:v>
+                  <c:v>0.57253021713214602</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77717382276453062</c:v>
+                  <c:v>0.54317071550610474</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.78716155003584398</c:v>
+                  <c:v>0.51606139344836377</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79720927723592239</c:v>
+                  <c:v>0.49068711822219857</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.80353717507588207</c:v>
+                  <c:v>0.46825999562162846</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.81032444248024627</c:v>
+                  <c:v>0.44737795978390676</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.82389851078857568</c:v>
+                  <c:v>0.42546417313834234</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.83246806253348626</c:v>
+                  <c:v>0.4029424541154501</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.83912631935337945</c:v>
+                  <c:v>0.38616029444347694</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.84526584461900645</c:v>
+                  <c:v>0.37301543634791207</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.82663429436396563</c:v>
+                  <c:v>0.35994855908928386</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.85857773150457306</c:v>
+                  <c:v>0.34450230995233999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.86241257111195924</c:v>
+                  <c:v>0.33091716042003744</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.86819196962912282</c:v>
+                  <c:v>0.31722818520820428</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.87568814961138708</c:v>
+                  <c:v>0.30507610819003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.88149173564090522</c:v>
+                  <c:v>0.29315151682792873</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.88501356269784837</c:v>
+                  <c:v>0.28194401646444495</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.88974107547805636</c:v>
+                  <c:v>0.27130495921003622</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.89654547278637964</c:v>
+                  <c:v>0.2625947313818211</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.89984919240310735</c:v>
+                  <c:v>0.25224613117994277</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.90660013905827919</c:v>
+                  <c:v>0.24433361683981256</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.90989399293286222</c:v>
+                  <c:v>0.23472919569619893</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.8952862748284498</c:v>
+                  <c:v>0.22877871543139069</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.91854953136445139</c:v>
+                  <c:v>0.21794094520235097</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.92030802342319673</c:v>
+                  <c:v>0.21125638051914275</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.92423848411664622</c:v>
+                  <c:v>0.20374529153548276</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.93063041552179904</c:v>
+                  <c:v>0.19763120428060627</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.93237290428185049</c:v>
+                  <c:v>0.1921247117920529</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.93484424731276183</c:v>
+                  <c:v>0.18680196152426115</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.93801364858623648</c:v>
+                  <c:v>0.18119273812508413</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.94019308773260357</c:v>
+                  <c:v>0.17576805687891331</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.94070997643629817</c:v>
+                  <c:v>0.17097806245036051</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.94697921189324685</c:v>
+                  <c:v>0.16504663665094313</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.9476092669627888</c:v>
+                  <c:v>0.15929074773412802</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.95392326181686893</c:v>
+                  <c:v>0.15447276601687571</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.95450720934171118</c:v>
+                  <c:v>0.15012063381051446</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.95748166264297052</c:v>
+                  <c:v>0.1463524030670609</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.95839889896929398</c:v>
+                  <c:v>0.14298415044052795</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.96002999064128147</c:v>
+                  <c:v>0.13844230219828008</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.9628342957065279</c:v>
+                  <c:v>0.13497410251300215</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.96756266585859774</c:v>
+                  <c:v>0.13206544072488424</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.96626551283260853</c:v>
+                  <c:v>0.12854818684825703</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.96172416777704761</c:v>
+                  <c:v>0.12676464668518692</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.97170107539774886</c:v>
+                  <c:v>0.12274573601386321</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.97505028403522476</c:v>
+                  <c:v>0.11999365149605276</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.97452613169678182</c:v>
+                  <c:v>0.11734970597226539</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.97762988970330011</c:v>
+                  <c:v>0.11501454909321206</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.97837850924425651</c:v>
+                  <c:v>0.11215661647588805</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.97986284104787225</c:v>
+                  <c:v>0.11019406078574426</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.97620050474845366</c:v>
+                  <c:v>0.10855710945768374</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.97897660234279782</c:v>
+                  <c:v>0.10571874428661106</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.98315789396809183</c:v>
+                  <c:v>0.1037251926494334</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.98456604595053687</c:v>
+                  <c:v>0.10114987653368107</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.98421405923827776</c:v>
+                  <c:v>9.9412368919232663E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.98613514854285589</c:v>
+                  <c:v>9.7213898372216972E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.9869753994802094</c:v>
+                  <c:v>9.4925806361407516E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.98845354992937462</c:v>
+                  <c:v>9.3170431620533803E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.98699428236368103</c:v>
+                  <c:v>9.1155726116059904E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.99017954328303925</c:v>
+                  <c:v>8.9260932997437065E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.99468675458537281</c:v>
+                  <c:v>8.7997339305450811E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.99187815798840329</c:v>
+                  <c:v>8.6167461150341171E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.99122803150882444</c:v>
+                  <c:v>8.4428296076175663E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.99314250320209196</c:v>
+                  <c:v>8.3016057635682095E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.99139471847294891</c:v>
+                  <c:v>8.1505210855414706E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.99252850983453844</c:v>
+                  <c:v>8.0117108597675818E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.99635186977761248</c:v>
+                  <c:v>7.8555978687853176E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.99607044957202517</c:v>
+                  <c:v>7.7214455221786812E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.99793252372115693</c:v>
+                  <c:v>7.6401570306908598E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.99395473411850477</c:v>
+                  <c:v>7.4690588115519138E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.99631646578014288</c:v>
+                  <c:v>7.3764332824301032E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.99799917632543633</c:v>
+                  <c:v>7.2083500071360607E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.9921864671938958</c:v>
+                  <c:v>7.2011975251434046E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.003418812452239</c:v>
+                  <c:v>6.9908233985833276E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.0011174784832619</c:v>
+                  <c:v>6.8778198827904091E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.0040360913508855</c:v>
+                  <c:v>6.7725535453470417E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.0018456428150855</c:v>
+                  <c:v>6.6739803284718915E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.0066168751281179</c:v>
+                  <c:v>6.5389211924849727E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.0073358866194824</c:v>
+                  <c:v>6.3970237314344924E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.0066584405164736</c:v>
+                  <c:v>6.3866503255725932E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.0061111134138896</c:v>
+                  <c:v>6.2207838179884171E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.0082394258109473</c:v>
+                  <c:v>6.1137756052293053E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.007761444592129</c:v>
+                  <c:v>5.9913855701643426E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.0092195214645028</c:v>
+                  <c:v>5.9148982147678976E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.0138626838460061</c:v>
+                  <c:v>5.8116806867631897E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.0113367924159442</c:v>
+                  <c:v>5.7307706424926989E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.0081058381969905</c:v>
+                  <c:v>5.6141037504305248E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.0050339458258408</c:v>
+                  <c:v>5.5922263502371006E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.0158269281550099</c:v>
+                  <c:v>5.4340030462871697E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.0149316086662685</c:v>
+                  <c:v>5.3522329658566438E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.0148195896406069</c:v>
+                  <c:v>5.2543839978663902E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.0176900277373759</c:v>
+                  <c:v>5.166340991274497E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.0141133730871925</c:v>
+                  <c:v>5.087958903356448E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.0127293407668063</c:v>
+                  <c:v>5.0361789704317671E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.0204996971446498</c:v>
+                  <c:v>4.9345580005984886E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.0178366581827101</c:v>
+                  <c:v>4.8733199250979721E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.00060341558017</c:v>
+                  <c:v>4.8578742888634022E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.0189599021575908</c:v>
+                  <c:v>4.7540634776485936E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.0187982603515513</c:v>
+                  <c:v>4.6961875001480413E-2</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.019502086927718</c:v>
+                  <c:v>4.6380104120127427E-2</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.0173302741499342</c:v>
+                  <c:v>4.554442896192451E-2</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.0204502643362166</c:v>
+                  <c:v>4.4988881494472152E-2</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.0222541889997694</c:v>
+                  <c:v>4.4309576700031321E-2</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.028851551523789</c:v>
+                  <c:v>4.3691983779543052E-2</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.0056177022749244</c:v>
+                  <c:v>4.3588219423888686E-2</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.0253542802196345</c:v>
+                  <c:v>4.2294866021419603E-2</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.0101292774354351</c:v>
+                  <c:v>4.2567424328361102E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5311,10 +5311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA4CEDA-8E27-5F40-958F-ACC31F5E09D2}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -5335,10 +5335,10 @@
         <v>7.0846087035332905E-2</v>
       </c>
       <c r="B2">
-        <v>0.33421811505710097</v>
+        <v>0.90766250409349425</v>
       </c>
       <c r="C2">
-        <v>0.66578188494289892</v>
+        <v>0.94732813832821172</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -5346,10 +5346,10 @@
         <v>0.15734115824552686</v>
       </c>
       <c r="B3">
-        <v>0.31916531456987135</v>
+        <v>0.78609352563226331</v>
       </c>
       <c r="C3">
-        <v>0.68083468543012859</v>
+        <v>0.87856572772999308</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -5357,10 +5357,10 @@
         <v>0.240919534570189</v>
       </c>
       <c r="B4">
-        <v>0.30249866318834617</v>
+        <v>0.6711475732262816</v>
       </c>
       <c r="C4">
-        <v>0.69750133681165383</v>
+        <v>0.81079985471916205</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -5368,10 +5368,10 @@
         <v>0.30645439794693174</v>
       </c>
       <c r="B5">
-        <v>0.28814852180982486</v>
+        <v>0.58411474220825776</v>
       </c>
       <c r="C5">
-        <v>0.71185147819017514</v>
+        <v>0.75604077043613827</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -5379,10 +5379,10 @@
         <v>0.37119417125331333</v>
       </c>
       <c r="B6">
-        <v>0.27284592670772922</v>
+        <v>0.50146518012688046</v>
       </c>
       <c r="C6">
-        <v>0.72715407329227078</v>
+        <v>0.70020273485190276</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -5390,10 +5390,10 @@
         <v>0.41956868824680638</v>
       </c>
       <c r="B7">
-        <v>0.26042328950680238</v>
+        <v>0.4418118929336699</v>
       </c>
       <c r="C7">
-        <v>0.73957671049319762</v>
+        <v>0.65737754023401851</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -5401,10 +5401,10 @@
         <v>0.46873266308191974</v>
       </c>
       <c r="B8">
-        <v>0.2462619830596085</v>
+        <v>0.38239943089952272</v>
       </c>
       <c r="C8">
-        <v>0.75373801694039155</v>
+        <v>0.6132172159480469</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -5412,10 +5412,10 @@
         <v>0.50951962297895115</v>
       </c>
       <c r="B9">
-        <v>0.23775256209980603</v>
+        <v>0.34084238213333334</v>
       </c>
       <c r="C9">
-        <v>0.762247437900194</v>
+        <v>0.57253021713214602</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -5423,10 +5423,10 @@
         <v>0.54360867518180012</v>
       </c>
       <c r="B10">
-        <v>0.22282617723546924</v>
+        <v>0.29724211275979284</v>
       </c>
       <c r="C10">
-        <v>0.77717382276453062</v>
+        <v>0.54317071550610474</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -5434,10 +5434,10 @@
         <v>0.57188869547343946</v>
       </c>
       <c r="B11">
-        <v>0.21283844996415605</v>
+        <v>0.26632597918471718</v>
       </c>
       <c r="C11">
-        <v>0.78716155003584398</v>
+        <v>0.51606139344836377</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -5445,10 +5445,10 @@
         <v>0.59806899397964486</v>
       </c>
       <c r="B12">
-        <v>0.20279072276407753</v>
+        <v>0.23823542609050816</v>
       </c>
       <c r="C12">
-        <v>0.79720927723592239</v>
+        <v>0.49068711822219857</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -5456,10 +5456,10 @@
         <v>0.61946002952247448</v>
       </c>
       <c r="B13">
-        <v>0.19646282492411793</v>
+        <v>0.21851809905414013</v>
       </c>
       <c r="C13">
-        <v>0.80353717507588207</v>
+        <v>0.46825999562162846</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -5467,10 +5467,10 @@
         <v>0.63947545048488241</v>
       </c>
       <c r="B14">
-        <v>0.18967555751975368</v>
+        <v>0.19987246166942801</v>
       </c>
       <c r="C14">
-        <v>0.81032444248024627</v>
+        <v>0.44737795978390676</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -5478,10 +5478,10 @@
         <v>0.66278376518093551</v>
       </c>
       <c r="B15">
-        <v>0.17610148921142424</v>
+        <v>0.17357143452527671</v>
       </c>
       <c r="C15">
-        <v>0.82389851078857568</v>
+        <v>0.42546417313834234</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -5489,10 +5489,10 @@
         <v>0.68392172711865196</v>
       </c>
       <c r="B16">
-        <v>0.16753193746651368</v>
+        <v>0.15477435536825884</v>
       </c>
       <c r="C16">
-        <v>0.83246806253348626</v>
+        <v>0.4029424541154501</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -5500,10 +5500,10 @@
         <v>0.69948962445060636</v>
       </c>
       <c r="B17">
-        <v>0.1608736806466205</v>
+        <v>0.14130294671219301</v>
       </c>
       <c r="C17">
-        <v>0.83912631935337945</v>
+        <v>0.38616029444347694</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -5511,10 +5511,10 @@
         <v>0.71182740238227338</v>
       </c>
       <c r="B18">
-        <v>0.15473415538099347</v>
+        <v>0.13033036729655437</v>
       </c>
       <c r="C18">
-        <v>0.84526584461900645</v>
+        <v>0.37301543634791207</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -5522,10 +5522,10 @@
         <v>0.71565459275639953</v>
       </c>
       <c r="B19">
-        <v>0.1733657056360344</v>
+        <v>0.1440841333881763</v>
       </c>
       <c r="C19">
-        <v>0.82663429436396563</v>
+        <v>0.35994855908928386</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -5533,10 +5533,10 @@
         <v>0.73798164521499732</v>
       </c>
       <c r="B20">
-        <v>0.14142226849542702</v>
+        <v>0.10830693452116318</v>
       </c>
       <c r="C20">
-        <v>0.85857773150457306</v>
+        <v>0.34450230995233999</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -5544,10 +5544,10 @@
         <v>0.74943326851851222</v>
       </c>
       <c r="B21">
-        <v>0.13758742888804071</v>
+        <v>0.10076481505283805</v>
       </c>
       <c r="C21">
-        <v>0.86241257111195924</v>
+        <v>0.33091716042003744</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -5555,10 +5555,10 @@
         <v>0.761397384750225</v>
       </c>
       <c r="B22">
-        <v>0.13180803037087729</v>
+        <v>9.1922921589898135E-2</v>
       </c>
       <c r="C22">
-        <v>0.86819196962912282</v>
+        <v>0.31722818520820428</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -5566,10 +5566,10 @@
         <v>0.77250182229387931</v>
       </c>
       <c r="B23">
-        <v>0.12431185038861302</v>
+        <v>8.2660342887565172E-2</v>
       </c>
       <c r="C23">
-        <v>0.87568814961138708</v>
+        <v>0.30507610819003</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -5577,10 +5577,10 @@
         <v>0.78283336699633543</v>
       </c>
       <c r="B24">
-        <v>0.11850826435909464</v>
+        <v>7.5222625029245399E-2</v>
       </c>
       <c r="C24">
-        <v>0.88149173564090522</v>
+        <v>0.29315151682792873</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -5588,10 +5588,10 @@
         <v>0.79196703768991417</v>
       </c>
       <c r="B25">
-        <v>0.11498643730215166</v>
+        <v>6.9917440369830788E-2</v>
       </c>
       <c r="C25">
-        <v>0.88501356269784837</v>
+        <v>0.28194401646444495</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -5599,10 +5599,10 @@
         <v>0.80088073104573343</v>
       </c>
       <c r="B26">
-        <v>0.11025892452194359</v>
+        <v>6.4170258734068092E-2</v>
       </c>
       <c r="C26">
-        <v>0.88974107547805636</v>
+        <v>0.27130495921003622</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -5610,10 +5610,10 @@
         <v>0.80873615432701229</v>
       </c>
       <c r="B27">
-        <v>0.10345452721362026</v>
+        <v>5.7834786044601058E-2</v>
       </c>
       <c r="C27">
-        <v>0.89654547278637964</v>
+        <v>0.2625947313818211</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -5621,10 +5621,10 @@
         <v>0.81694820999531703</v>
       </c>
       <c r="B28">
-        <v>0.10015080759689261</v>
+        <v>5.358400676187966E-2</v>
       </c>
       <c r="C28">
-        <v>0.89984919240310735</v>
+        <v>0.25224613117994277</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -5632,10 +5632,10 @@
         <v>0.82401054765881254</v>
       </c>
       <c r="B29">
-        <v>9.3399860941720911E-2</v>
+        <v>4.8044050929357478E-2</v>
       </c>
       <c r="C29">
-        <v>0.90660013905827919</v>
+        <v>0.24433361683981256</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -5643,10 +5643,10 @@
         <v>0.83154049892588255</v>
       </c>
       <c r="B30">
-        <v>9.0106007067137797E-2</v>
+        <v>4.4366585296685253E-2</v>
       </c>
       <c r="C30">
-        <v>0.90989399293286222</v>
+        <v>0.23472919569619893</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -5654,10 +5654,10 @@
         <v>0.83313206642283677</v>
       </c>
       <c r="B31">
-        <v>0.10471372517155023</v>
+        <v>5.1072044870485146E-2</v>
       </c>
       <c r="C31">
-        <v>0.8952862748284498</v>
+        <v>0.22877871543139069</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -5665,10 +5665,10 @@
         <v>0.84506289123633815</v>
       </c>
       <c r="B32">
-        <v>8.145046863554864E-2</v>
+        <v>3.6885509275511076E-2</v>
       </c>
       <c r="C32">
-        <v>0.91854953136445139</v>
+        <v>0.21794094520235097</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -5676,10 +5676,10 @@
         <v>0.85010200505697653</v>
       </c>
       <c r="B33">
-        <v>7.96919765768032E-2</v>
+        <v>3.4915412040659233E-2</v>
       </c>
       <c r="C33">
-        <v>0.92030802342319673</v>
+        <v>0.21125638051914275</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -5687,10 +5687,10 @@
         <v>0.85604633362688964</v>
       </c>
       <c r="B34">
-        <v>7.5761515883353767E-2</v>
+        <v>3.1877050862657574E-2</v>
       </c>
       <c r="C34">
-        <v>0.92423848411664622</v>
+        <v>0.20374529153548276</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -5698,10 +5698,10 @@
         <v>0.86132522432579717</v>
       </c>
       <c r="B35">
-        <v>6.9369584478200963E-2</v>
+        <v>2.8117280556415013E-2</v>
       </c>
       <c r="C35">
-        <v>0.93063041552179904</v>
+        <v>0.19763120428060627</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -5709,10 +5709,10 @@
         <v>0.8654409902660164</v>
       </c>
       <c r="B36">
-        <v>6.7627095718149496E-2</v>
+        <v>2.6597466366721823E-2</v>
       </c>
       <c r="C36">
-        <v>0.93237290428185049</v>
+        <v>0.1921247117920529</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -5720,10 +5720,10 @@
         <v>0.86951476571553821</v>
       </c>
       <c r="B37">
-        <v>6.5155752687238097E-2</v>
+        <v>2.4849684838336186E-2</v>
       </c>
       <c r="C37">
-        <v>0.93484424731276183</v>
+        <v>0.18680196152426115</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -5731,10 +5731,10 @@
         <v>0.87386058061159722</v>
       </c>
       <c r="B38">
-        <v>6.198635141376356E-2</v>
+        <v>2.2853548910100056E-2</v>
       </c>
       <c r="C38">
-        <v>0.93801364858623648</v>
+        <v>0.18119273812508413</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -5742,10 +5742,10 @@
         <v>0.8779206818419909</v>
       </c>
       <c r="B39">
-        <v>5.9806912267396525E-2</v>
+        <v>2.1340285498492706E-2</v>
       </c>
       <c r="C39">
-        <v>0.94019308773260357</v>
+        <v>0.17576805687891331</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -5753,10 +5753,10 @@
         <v>0.88131281245731929</v>
       </c>
       <c r="B40">
-        <v>5.9290023563701846E-2</v>
+        <v>2.0568006975625958E-2</v>
       </c>
       <c r="C40">
-        <v>0.94070997643629817</v>
+        <v>0.17097806245036051</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -5764,10 +5764,10 @@
         <v>0.8861886878380707</v>
       </c>
       <c r="B41">
-        <v>5.3020788106753175E-2</v>
+        <v>1.7637554086093438E-2</v>
       </c>
       <c r="C41">
-        <v>0.94697921189324685</v>
+        <v>0.16504663665094313</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -5775,10 +5775,10 @@
         <v>0.89023081264253534</v>
       </c>
       <c r="B42">
-        <v>5.2390733037211173E-2</v>
+        <v>1.6808992108724888E-2</v>
       </c>
       <c r="C42">
-        <v>0.9476092669627888</v>
+        <v>0.15929074773412802</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -5786,10 +5786,10 @@
         <v>0.89425552603529657</v>
       </c>
       <c r="B43">
-        <v>4.6076738183131141E-2</v>
+        <v>1.4241185968668413E-2</v>
       </c>
       <c r="C43">
-        <v>0.95392326181686893</v>
+        <v>0.15447276601687571</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -5797,10 +5797,10 @@
         <v>0.89729765174609333</v>
       </c>
       <c r="B44">
-        <v>4.5492790658288748E-2</v>
+        <v>1.3656194745385167E-2</v>
       </c>
       <c r="C44">
-        <v>0.95450720934171118</v>
+        <v>0.15012063381051446</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -5808,10 +5808,10 @@
         <v>0.90018665965976996</v>
       </c>
       <c r="B45">
-        <v>4.2518337357029437E-2</v>
+        <v>1.2404281474610283E-2</v>
       </c>
       <c r="C45">
-        <v>0.95748166264297052</v>
+        <v>0.1463524030670609</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -5819,10 +5819,10 @@
         <v>0.90257715891577783</v>
       </c>
       <c r="B46">
-        <v>4.160110103070596E-2</v>
+        <v>1.1846017358576894E-2</v>
       </c>
       <c r="C46">
-        <v>0.95839889896929398</v>
+        <v>0.14298415044052795</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -5830,10 +5830,10 @@
         <v>0.90583202970273824</v>
       </c>
       <c r="B47">
-        <v>3.9970009358718521E-2</v>
+        <v>1.100130509271186E-2</v>
       </c>
       <c r="C47">
-        <v>0.96002999064128147</v>
+        <v>0.13844230219828008</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -5841,10 +5841,10 @@
         <v>0.90845848525604589</v>
       </c>
       <c r="B48">
-        <v>3.7165704293472171E-2</v>
+        <v>9.9441395617507929E-3</v>
       </c>
       <c r="C48">
-        <v>0.9628342957065279</v>
+        <v>0.13497410251300215</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -5852,10 +5852,10 @@
         <v>0.91086889721881803</v>
       </c>
       <c r="B49">
-        <v>3.2437334141402256E-2</v>
+        <v>8.4504762145320503E-3</v>
       </c>
       <c r="C49">
-        <v>0.96756266585859774</v>
+        <v>0.13206544072488424</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -5863,10 +5863,10 @@
         <v>0.91312622906893137</v>
       </c>
       <c r="B50">
-        <v>3.3734487167391483E-2</v>
+        <v>8.5658316557818207E-3</v>
       </c>
       <c r="C50">
-        <v>0.96626551283260853</v>
+        <v>0.12854818684825703</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -5874,10 +5874,10 @@
         <v>0.9139270242611337</v>
       </c>
       <c r="B51">
-        <v>3.827583222295234E-2</v>
+        <v>9.629377424107001E-3</v>
       </c>
       <c r="C51">
-        <v>0.96172416777704761</v>
+        <v>0.12676464668518692</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -5885,10 +5885,10 @@
         <v>0.9175115907888588</v>
       </c>
       <c r="B52">
-        <v>2.8298924602251189E-2</v>
+        <v>6.8229094814420879E-3</v>
       </c>
       <c r="C52">
-        <v>0.97170107539774886</v>
+        <v>0.12274573601386321</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -5896,10 +5896,10 @@
         <v>0.91963805237882479</v>
       </c>
       <c r="B53">
-        <v>2.4949715964775226E-2</v>
+        <v>5.8603399380277831E-3</v>
       </c>
       <c r="C53">
-        <v>0.97505028403522476</v>
+        <v>0.11999365149605276</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -5907,10 +5907,10 @@
         <v>0.92136648057158588</v>
       </c>
       <c r="B54">
-        <v>2.5473868303218163E-2</v>
+        <v>5.8547635776083733E-3</v>
       </c>
       <c r="C54">
-        <v>0.97452613169678182</v>
+        <v>0.11734970597226539</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -5918,10 +5918,10 @@
         <v>0.92317589536064981</v>
       </c>
       <c r="B55">
-        <v>2.237011029669991E-2</v>
+        <v>5.0231064519818481E-3</v>
       </c>
       <c r="C55">
-        <v>0.97762988970330011</v>
+        <v>0.11501454909321206</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -5929,10 +5929,10 @@
         <v>0.92514217718193881</v>
       </c>
       <c r="B56">
-        <v>2.1621490755743419E-2</v>
+        <v>4.7307453961636528E-3</v>
       </c>
       <c r="C56">
-        <v>0.97837850924425651</v>
+        <v>0.11215661647588805</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -5940,10 +5940,10 @@
         <v>0.92656347862043953</v>
       </c>
       <c r="B57">
-        <v>2.013715895212782E-2</v>
+        <v>4.322321269091307E-3</v>
       </c>
       <c r="C57">
-        <v>0.97986284104787225</v>
+        <v>0.11019406078574426</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -5951,10 +5951,10 @@
         <v>0.92738297705621531</v>
       </c>
       <c r="B58">
-        <v>2.3799495251546336E-2</v>
+        <v>5.0514136797079924E-3</v>
       </c>
       <c r="C58">
-        <v>0.97620050474845366</v>
+        <v>0.10855710945768374</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -5962,10 +5962,10 @@
         <v>0.92948217949833556</v>
       </c>
       <c r="B59">
-        <v>2.102339765720225E-2</v>
+        <v>4.3331980132437428E-3</v>
       </c>
       <c r="C59">
-        <v>0.97897660234279782</v>
+        <v>0.10571874428661106</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -5973,10 +5973,10 @@
         <v>0.93110619414973916</v>
       </c>
       <c r="B60">
-        <v>1.684210603190809E-2</v>
+        <v>3.3914336366861592E-3</v>
       </c>
       <c r="C60">
-        <v>0.98315789396809183</v>
+        <v>0.1037251926494334</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -5984,10 +5984,10 @@
         <v>0.93291279480972389</v>
       </c>
       <c r="B61">
-        <v>1.5433954049463038E-2</v>
+        <v>3.0263813500247699E-3</v>
       </c>
       <c r="C61">
-        <v>0.98456604595053687</v>
+        <v>0.10114987653368107</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -5995,10 +5995,10 @@
         <v>0.93404160858147589</v>
       </c>
       <c r="B62">
-        <v>1.578594076172218E-2</v>
+        <v>3.0433175717167246E-3</v>
       </c>
       <c r="C62">
-        <v>0.98421405923827776</v>
+        <v>9.9412368919232663E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -6006,10 +6006,10 @@
         <v>0.93562590776857912</v>
       </c>
       <c r="B63">
-        <v>1.3864851457144115E-2</v>
+        <v>2.6087537610682793E-3</v>
       </c>
       <c r="C63">
-        <v>0.98613514854285589</v>
+        <v>9.7213898372216972E-2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -6017,10 +6017,10 @@
         <v>0.93719457419391206</v>
       </c>
       <c r="B64">
-        <v>1.3024600519790539E-2</v>
+        <v>2.3909380604027483E-3</v>
       </c>
       <c r="C64">
-        <v>0.9869753994802094</v>
+        <v>9.4925806361407516E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -6028,10 +6028,10 @@
         <v>0.93844816011389776</v>
       </c>
       <c r="B65">
-        <v>1.1546450070625439E-2</v>
+        <v>2.0772858862497653E-3</v>
       </c>
       <c r="C65">
-        <v>0.98845354992937462</v>
+        <v>9.3170431620533803E-2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -6039,10 +6039,10 @@
         <v>0.93969011291665927</v>
       </c>
       <c r="B66">
-        <v>1.3005717636318897E-2</v>
+        <v>2.2926068490111782E-3</v>
       </c>
       <c r="C66">
-        <v>0.98699428236368103</v>
+        <v>9.1155726116059904E-2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -6050,10 +6050,10 @@
         <v>0.94113370946666608</v>
       </c>
       <c r="B67">
-        <v>9.8204567169608466E-3</v>
+        <v>1.6896824942154304E-3</v>
       </c>
       <c r="C67">
-        <v>0.99017954328303925</v>
+        <v>8.9260932997437065E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -6061,10 +6061,10 @@
         <v>0.94222999522290996</v>
       </c>
       <c r="B68">
-        <v>5.3132454146272148E-3</v>
+        <v>8.9715819555279727E-4</v>
       </c>
       <c r="C68">
-        <v>0.99468675458537281</v>
+        <v>8.7997339305450811E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -6072,10 +6072,10 @@
         <v>0.94327112546726199</v>
       </c>
       <c r="B69">
-        <v>8.1218420115966236E-3</v>
+        <v>1.3466832361383419E-3</v>
       </c>
       <c r="C69">
-        <v>0.99187815798840329</v>
+        <v>8.6167461150341171E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -6083,10 +6083,10 @@
         <v>0.94437965907101296</v>
       </c>
       <c r="B70">
-        <v>8.7719684911756485E-3</v>
+        <v>1.4260588850007561E-3</v>
       </c>
       <c r="C70">
-        <v>0.99122803150882444</v>
+        <v>8.4428296076175663E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -6094,10 +6094,10 @@
         <v>0.94541545004893512</v>
       </c>
       <c r="B71">
-        <v>6.8574967979080619E-3</v>
+        <v>1.0940624097316067E-3</v>
       </c>
       <c r="C71">
-        <v>0.99314250320209196</v>
+        <v>8.3016057635682095E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -6105,10 +6105,10 @@
         <v>0.94631438016700598</v>
       </c>
       <c r="B72">
-        <v>8.6052815270512336E-3</v>
+        <v>1.3502985583971254E-3</v>
       </c>
       <c r="C72">
-        <v>0.99139471847294891</v>
+        <v>8.1505210855414706E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -6116,10 +6116,10 @@
         <v>0.94728897345383389</v>
       </c>
       <c r="B73">
-        <v>7.4714901654615203E-3</v>
+        <v>1.1511063575668343E-3</v>
       </c>
       <c r="C73">
-        <v>0.99252850983453844</v>
+        <v>8.0117108597675818E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -6127,10 +6127,10 @@
         <v>0.9485144091830372</v>
       </c>
       <c r="B74">
-        <v>3.6481302223875041E-3</v>
+        <v>5.4898791254303649E-4</v>
       </c>
       <c r="C74">
-        <v>0.99635186977761248</v>
+        <v>7.8555978687853176E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -6138,10 +6138,10 @@
         <v>0.94937934586816786</v>
       </c>
       <c r="B75">
-        <v>3.9295504279748565E-3</v>
+        <v>5.8140313416639E-4</v>
       </c>
       <c r="C75">
-        <v>0.99607044957202517</v>
+        <v>7.7214455221786812E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -6149,10 +6149,10 @@
         <v>0.9500057214989267</v>
       </c>
       <c r="B76">
-        <v>2.067476278843009E-3</v>
+        <v>3.0211173137108526E-4</v>
       </c>
       <c r="C76">
-        <v>0.99793252372115693</v>
+        <v>7.6401570306908598E-2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -6160,10 +6160,10 @@
         <v>0.95092972748760174</v>
       </c>
       <c r="B77">
-        <v>6.0452658814953049E-3</v>
+        <v>8.670429788055126E-4</v>
       </c>
       <c r="C77">
-        <v>0.99395473411850477</v>
+        <v>7.4690588115519138E-2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -6171,10 +6171,10 @@
         <v>0.95165313608796798</v>
       </c>
       <c r="B78">
-        <v>3.6835342198571165E-3</v>
+        <v>5.2052281070710761E-4</v>
       </c>
       <c r="C78">
-        <v>0.99631646578014288</v>
+        <v>7.3764332824301032E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -6182,10 +6182,384 @@
         <v>0.95283445246345699</v>
       </c>
       <c r="B79">
-        <v>2.0008236745636563E-3</v>
+        <v>2.7582933169674007E-4</v>
       </c>
       <c r="C79">
-        <v>0.99799917632543633</v>
+        <v>7.2083500071360607E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>0.95260520799986448</v>
+      </c>
+      <c r="B80">
+        <v>1.0823925908675445E-3</v>
+      </c>
+      <c r="C80">
+        <v>7.2011975251434046E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>0.95450483029096644</v>
+      </c>
+      <c r="B81">
+        <v>-4.5461872091773144E-4</v>
+      </c>
+      <c r="C81">
+        <v>6.9908233985833276E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>0.9551373470676906</v>
+      </c>
+      <c r="B82">
+        <v>-1.4653145793372676E-4</v>
+      </c>
+      <c r="C82">
+        <v>6.8778198827904091E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>0.95595239289000422</v>
+      </c>
+      <c r="B83">
+        <v>-5.1962502308746739E-4</v>
+      </c>
+      <c r="C83">
+        <v>6.7725535453470417E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>0.95649859280638683</v>
+      </c>
+      <c r="B84">
+        <v>-2.3467007461771172E-4</v>
+      </c>
+      <c r="C84">
+        <v>6.6739803284718915E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>0.95758093477941053</v>
+      </c>
+      <c r="B85">
+        <v>-8.2039080079501455E-4</v>
+      </c>
+      <c r="C85">
+        <v>6.5389211924849727E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>0.95853106776319474</v>
+      </c>
+      <c r="B86">
+        <v>-8.8916469985741401E-4</v>
+      </c>
+      <c r="C86">
+        <v>6.3970237314344924E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>0.958570451838756</v>
+      </c>
+      <c r="B87">
+        <v>-8.0628665237080866E-4</v>
+      </c>
+      <c r="C87">
+        <v>6.3866503255725932E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>0.9596244584684599</v>
+      </c>
+      <c r="B88">
+        <v>-7.2118295418131079E-4</v>
+      </c>
+      <c r="C88">
+        <v>6.2207838179884171E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>0.96040275086057569</v>
+      </c>
+      <c r="B89">
+        <v>-9.5360542475682601E-4</v>
+      </c>
+      <c r="C89">
+        <v>6.1137756052293053E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>0.96117703257455955</v>
+      </c>
+      <c r="B90">
+        <v>-8.8072036402100007E-4</v>
+      </c>
+      <c r="C90">
+        <v>5.9913855701643426E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>0.96172802887283715</v>
+      </c>
+      <c r="B91">
+        <v>-1.0313259827952035E-3</v>
+      </c>
+      <c r="C91">
+        <v>5.9148982147678976E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>0.96256810592152853</v>
+      </c>
+      <c r="B92">
+        <v>-1.5166866750557198E-3</v>
+      </c>
+      <c r="C92">
+        <v>5.8116806867631897E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>0.9629970441454283</v>
+      </c>
+      <c r="B93">
+        <v>-1.226121086291867E-3</v>
+      </c>
+      <c r="C93">
+        <v>5.7307706424926989E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>0.96363417020683595</v>
+      </c>
+      <c r="B94">
+        <v>-8.6158510311094589E-4</v>
+      </c>
+      <c r="C94">
+        <v>5.6141037504305248E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>0.96366516367451382</v>
+      </c>
+      <c r="B95">
+        <v>-5.3461174408303818E-4</v>
+      </c>
+      <c r="C95">
+        <v>5.5922263502371006E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>0.96506832960178801</v>
+      </c>
+      <c r="B96">
+        <v>-1.6159307071269889E-3</v>
+      </c>
+      <c r="C96">
+        <v>5.4340030462871697E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>0.96556362506043214</v>
+      </c>
+      <c r="B97">
+        <v>-1.5029023937816752E-3</v>
+      </c>
+      <c r="C97">
+        <v>5.3522329658566438E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>0.96618945559170777</v>
+      </c>
+      <c r="B98">
+        <v>-1.4645192717902447E-3</v>
+      </c>
+      <c r="C98">
+        <v>5.2543839978663902E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>0.96684975475312185</v>
+      </c>
+      <c r="B99">
+        <v>-1.7140441680575517E-3</v>
+      </c>
+      <c r="C99">
+        <v>5.166340991274497E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>0.96723755670498868</v>
+      </c>
+      <c r="B100">
+        <v>-1.3514931653688812E-3</v>
+      </c>
+      <c r="C100">
+        <v>5.087958903356448E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>0.96752665997637155</v>
+      </c>
+      <c r="B101">
+        <v>-1.2082021994602075E-3</v>
+      </c>
+      <c r="C101">
+        <v>5.0361789704317671E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>0.96842418454464518</v>
+      </c>
+      <c r="B102">
+        <v>-1.8919461428232487E-3</v>
+      </c>
+      <c r="C102">
+        <v>4.9345580005984886E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>0.96873445293896987</v>
+      </c>
+      <c r="B103">
+        <v>-1.6299949952690821E-3</v>
+      </c>
+      <c r="C103">
+        <v>4.8733199250979721E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>0.96829677168683059</v>
+      </c>
+      <c r="B104">
+        <v>-5.5914797575390302E-5</v>
+      </c>
+      <c r="C104">
+        <v>4.8578742888634022E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>0.96953318331595606</v>
+      </c>
+      <c r="B105">
+        <v>-1.6883789173933476E-3</v>
+      </c>
+      <c r="C105">
+        <v>4.7540634776485936E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>0.96989931140196672</v>
+      </c>
+      <c r="B106">
+        <v>-1.6538679845826269E-3</v>
+      </c>
+      <c r="C106">
+        <v>4.6961875001480413E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>0.97029272630301322</v>
+      </c>
+      <c r="B107">
+        <v>-1.6933652162221861E-3</v>
+      </c>
+      <c r="C107">
+        <v>4.6380104120127427E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>0.97076571409585977</v>
+      </c>
+      <c r="B108">
+        <v>-1.4808281857825703E-3</v>
+      </c>
+      <c r="C108">
+        <v>4.554442896192451E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>0.97121060418267058</v>
+      </c>
+      <c r="B109">
+        <v>-1.7208310193532275E-3</v>
+      </c>
+      <c r="C109">
+        <v>4.4988881494472152E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>0.97169534279470471</v>
+      </c>
+      <c r="B110">
+        <v>-1.8410959424589423E-3</v>
+      </c>
+      <c r="C110">
+        <v>4.4309576700031321E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>0.97226882674140969</v>
+      </c>
+      <c r="B111">
+        <v>-2.3385365723810753E-3</v>
+      </c>
+      <c r="C111">
+        <v>4.3691983779543052E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>0.97169550465806098</v>
+      </c>
+      <c r="B112">
+        <v>-4.647515898403691E-4</v>
+      </c>
+      <c r="C112">
+        <v>4.3588219423888686E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>0.97306401247694108</v>
+      </c>
+      <c r="B113">
+        <v>-1.9961397238953105E-3</v>
+      </c>
+      <c r="C113">
+        <v>4.2294866021419603E-2</v>
       </c>
     </row>
   </sheetData>
@@ -10658,8 +11032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BC1AAB-38BF-4027-ADF4-0695FD99321C}">
   <dimension ref="A1:T116"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S101" sqref="S101"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -10892,12 +11266,12 @@
         <v>7.0846087035332905E-2</v>
       </c>
       <c r="S4">
-        <f>H4/SUM(H4:I4)</f>
-        <v>0.33421811505710097</v>
+        <f>H4/$H$3</f>
+        <v>0.90766250409349425</v>
       </c>
       <c r="T4">
-        <f>I4/SUM(H4:I4)</f>
-        <v>0.66578188494289892</v>
+        <f>I4/$I$3</f>
+        <v>0.94732813832821172</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
@@ -10961,12 +11335,12 @@
         <v>0.15734115824552686</v>
       </c>
       <c r="S5">
-        <f t="shared" ref="S5:S68" si="6">H5/SUM(H5:I5)</f>
-        <v>0.31916531456987135</v>
+        <f t="shared" ref="S5:S68" si="6">H5/$H$3</f>
+        <v>0.78609352563226331</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T5:T68" si="7">I5/SUM(H5:I5)</f>
-        <v>0.68083468543012859</v>
+        <f t="shared" ref="T5:T68" si="7">I5/$I$3</f>
+        <v>0.87856572772999308</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
@@ -11031,11 +11405,11 @@
       </c>
       <c r="S6">
         <f t="shared" si="6"/>
-        <v>0.30249866318834617</v>
+        <v>0.6711475732262816</v>
       </c>
       <c r="T6">
         <f t="shared" si="7"/>
-        <v>0.69750133681165383</v>
+        <v>0.81079985471916205</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
@@ -11100,11 +11474,11 @@
       </c>
       <c r="S7">
         <f t="shared" si="6"/>
-        <v>0.28814852180982486</v>
+        <v>0.58411474220825776</v>
       </c>
       <c r="T7">
         <f t="shared" si="7"/>
-        <v>0.71185147819017514</v>
+        <v>0.75604077043613827</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
@@ -11169,11 +11543,11 @@
       </c>
       <c r="S8">
         <f t="shared" si="6"/>
-        <v>0.27284592670772922</v>
+        <v>0.50146518012688046</v>
       </c>
       <c r="T8">
         <f t="shared" si="7"/>
-        <v>0.72715407329227078</v>
+        <v>0.70020273485190276</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
@@ -11238,11 +11612,11 @@
       </c>
       <c r="S9">
         <f t="shared" si="6"/>
-        <v>0.26042328950680238</v>
+        <v>0.4418118929336699</v>
       </c>
       <c r="T9">
         <f t="shared" si="7"/>
-        <v>0.73957671049319762</v>
+        <v>0.65737754023401851</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
@@ -11307,11 +11681,11 @@
       </c>
       <c r="S10">
         <f t="shared" si="6"/>
-        <v>0.2462619830596085</v>
+        <v>0.38239943089952272</v>
       </c>
       <c r="T10">
         <f t="shared" si="7"/>
-        <v>0.75373801694039155</v>
+        <v>0.6132172159480469</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
@@ -11376,11 +11750,11 @@
       </c>
       <c r="S11">
         <f t="shared" si="6"/>
-        <v>0.23775256209980603</v>
+        <v>0.34084238213333334</v>
       </c>
       <c r="T11">
         <f t="shared" si="7"/>
-        <v>0.762247437900194</v>
+        <v>0.57253021713214602</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
@@ -11445,11 +11819,11 @@
       </c>
       <c r="S12">
         <f t="shared" si="6"/>
-        <v>0.22282617723546924</v>
+        <v>0.29724211275979284</v>
       </c>
       <c r="T12">
         <f t="shared" si="7"/>
-        <v>0.77717382276453062</v>
+        <v>0.54317071550610474</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
@@ -11514,11 +11888,11 @@
       </c>
       <c r="S13">
         <f t="shared" si="6"/>
-        <v>0.21283844996415605</v>
+        <v>0.26632597918471718</v>
       </c>
       <c r="T13">
         <f t="shared" si="7"/>
-        <v>0.78716155003584398</v>
+        <v>0.51606139344836377</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
@@ -11583,11 +11957,11 @@
       </c>
       <c r="S14">
         <f t="shared" si="6"/>
-        <v>0.20279072276407753</v>
+        <v>0.23823542609050816</v>
       </c>
       <c r="T14">
         <f t="shared" si="7"/>
-        <v>0.79720927723592239</v>
+        <v>0.49068711822219857</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
@@ -11652,11 +12026,11 @@
       </c>
       <c r="S15">
         <f t="shared" si="6"/>
-        <v>0.19646282492411793</v>
+        <v>0.21851809905414013</v>
       </c>
       <c r="T15">
         <f t="shared" si="7"/>
-        <v>0.80353717507588207</v>
+        <v>0.46825999562162846</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
@@ -11721,11 +12095,11 @@
       </c>
       <c r="S16">
         <f t="shared" si="6"/>
-        <v>0.18967555751975368</v>
+        <v>0.19987246166942801</v>
       </c>
       <c r="T16">
         <f t="shared" si="7"/>
-        <v>0.81032444248024627</v>
+        <v>0.44737795978390676</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.15">
@@ -11790,11 +12164,11 @@
       </c>
       <c r="S17">
         <f t="shared" si="6"/>
-        <v>0.17610148921142424</v>
+        <v>0.17357143452527671</v>
       </c>
       <c r="T17">
         <f t="shared" si="7"/>
-        <v>0.82389851078857568</v>
+        <v>0.42546417313834234</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.15">
@@ -11859,11 +12233,11 @@
       </c>
       <c r="S18">
         <f t="shared" si="6"/>
-        <v>0.16753193746651368</v>
+        <v>0.15477435536825884</v>
       </c>
       <c r="T18">
         <f t="shared" si="7"/>
-        <v>0.83246806253348626</v>
+        <v>0.4029424541154501</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.15">
@@ -11928,11 +12302,11 @@
       </c>
       <c r="S19">
         <f t="shared" si="6"/>
-        <v>0.1608736806466205</v>
+        <v>0.14130294671219301</v>
       </c>
       <c r="T19">
         <f t="shared" si="7"/>
-        <v>0.83912631935337945</v>
+        <v>0.38616029444347694</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.15">
@@ -11997,11 +12371,11 @@
       </c>
       <c r="S20">
         <f t="shared" si="6"/>
-        <v>0.15473415538099347</v>
+        <v>0.13033036729655437</v>
       </c>
       <c r="T20">
         <f t="shared" si="7"/>
-        <v>0.84526584461900645</v>
+        <v>0.37301543634791207</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.15">
@@ -12066,11 +12440,11 @@
       </c>
       <c r="S21">
         <f t="shared" si="6"/>
-        <v>0.1733657056360344</v>
+        <v>0.1440841333881763</v>
       </c>
       <c r="T21">
         <f t="shared" si="7"/>
-        <v>0.82663429436396563</v>
+        <v>0.35994855908928386</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.15">
@@ -12135,11 +12509,11 @@
       </c>
       <c r="S22">
         <f t="shared" si="6"/>
-        <v>0.14142226849542702</v>
+        <v>0.10830693452116318</v>
       </c>
       <c r="T22">
         <f t="shared" si="7"/>
-        <v>0.85857773150457306</v>
+        <v>0.34450230995233999</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.15">
@@ -12204,11 +12578,11 @@
       </c>
       <c r="S23">
         <f t="shared" si="6"/>
-        <v>0.13758742888804071</v>
+        <v>0.10076481505283805</v>
       </c>
       <c r="T23">
         <f t="shared" si="7"/>
-        <v>0.86241257111195924</v>
+        <v>0.33091716042003744</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.15">
@@ -12273,11 +12647,11 @@
       </c>
       <c r="S24">
         <f t="shared" si="6"/>
-        <v>0.13180803037087729</v>
+        <v>9.1922921589898135E-2</v>
       </c>
       <c r="T24">
         <f t="shared" si="7"/>
-        <v>0.86819196962912282</v>
+        <v>0.31722818520820428</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.15">
@@ -12342,11 +12716,11 @@
       </c>
       <c r="S25">
         <f t="shared" si="6"/>
-        <v>0.12431185038861302</v>
+        <v>8.2660342887565172E-2</v>
       </c>
       <c r="T25">
         <f t="shared" si="7"/>
-        <v>0.87568814961138708</v>
+        <v>0.30507610819003</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.15">
@@ -12411,11 +12785,11 @@
       </c>
       <c r="S26">
         <f t="shared" si="6"/>
-        <v>0.11850826435909464</v>
+        <v>7.5222625029245399E-2</v>
       </c>
       <c r="T26">
         <f t="shared" si="7"/>
-        <v>0.88149173564090522</v>
+        <v>0.29315151682792873</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.15">
@@ -12480,11 +12854,11 @@
       </c>
       <c r="S27">
         <f t="shared" si="6"/>
-        <v>0.11498643730215166</v>
+        <v>6.9917440369830788E-2</v>
       </c>
       <c r="T27">
         <f t="shared" si="7"/>
-        <v>0.88501356269784837</v>
+        <v>0.28194401646444495</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.15">
@@ -12549,11 +12923,11 @@
       </c>
       <c r="S28">
         <f t="shared" si="6"/>
-        <v>0.11025892452194359</v>
+        <v>6.4170258734068092E-2</v>
       </c>
       <c r="T28">
         <f t="shared" si="7"/>
-        <v>0.88974107547805636</v>
+        <v>0.27130495921003622</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.15">
@@ -12618,11 +12992,11 @@
       </c>
       <c r="S29">
         <f t="shared" si="6"/>
-        <v>0.10345452721362026</v>
+        <v>5.7834786044601058E-2</v>
       </c>
       <c r="T29">
         <f t="shared" si="7"/>
-        <v>0.89654547278637964</v>
+        <v>0.2625947313818211</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.15">
@@ -12687,11 +13061,11 @@
       </c>
       <c r="S30">
         <f t="shared" si="6"/>
-        <v>0.10015080759689261</v>
+        <v>5.358400676187966E-2</v>
       </c>
       <c r="T30">
         <f t="shared" si="7"/>
-        <v>0.89984919240310735</v>
+        <v>0.25224613117994277</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.15">
@@ -12756,11 +13130,11 @@
       </c>
       <c r="S31">
         <f t="shared" si="6"/>
-        <v>9.3399860941720911E-2</v>
+        <v>4.8044050929357478E-2</v>
       </c>
       <c r="T31">
         <f t="shared" si="7"/>
-        <v>0.90660013905827919</v>
+        <v>0.24433361683981256</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.15">
@@ -12825,11 +13199,11 @@
       </c>
       <c r="S32">
         <f t="shared" si="6"/>
-        <v>9.0106007067137797E-2</v>
+        <v>4.4366585296685253E-2</v>
       </c>
       <c r="T32">
         <f t="shared" si="7"/>
-        <v>0.90989399293286222</v>
+        <v>0.23472919569619893</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.15">
@@ -12894,11 +13268,11 @@
       </c>
       <c r="S33">
         <f t="shared" si="6"/>
-        <v>0.10471372517155023</v>
+        <v>5.1072044870485146E-2</v>
       </c>
       <c r="T33">
         <f t="shared" si="7"/>
-        <v>0.8952862748284498</v>
+        <v>0.22877871543139069</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.15">
@@ -12963,11 +13337,11 @@
       </c>
       <c r="S34">
         <f t="shared" si="6"/>
-        <v>8.145046863554864E-2</v>
+        <v>3.6885509275511076E-2</v>
       </c>
       <c r="T34">
         <f t="shared" si="7"/>
-        <v>0.91854953136445139</v>
+        <v>0.21794094520235097</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.15">
@@ -13032,11 +13406,11 @@
       </c>
       <c r="S35">
         <f t="shared" si="6"/>
-        <v>7.96919765768032E-2</v>
+        <v>3.4915412040659233E-2</v>
       </c>
       <c r="T35">
         <f t="shared" si="7"/>
-        <v>0.92030802342319673</v>
+        <v>0.21125638051914275</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.15">
@@ -13101,11 +13475,11 @@
       </c>
       <c r="S36">
         <f t="shared" si="6"/>
-        <v>7.5761515883353767E-2</v>
+        <v>3.1877050862657574E-2</v>
       </c>
       <c r="T36">
         <f t="shared" si="7"/>
-        <v>0.92423848411664622</v>
+        <v>0.20374529153548276</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.15">
@@ -13170,11 +13544,11 @@
       </c>
       <c r="S37">
         <f t="shared" si="6"/>
-        <v>6.9369584478200963E-2</v>
+        <v>2.8117280556415013E-2</v>
       </c>
       <c r="T37">
         <f t="shared" si="7"/>
-        <v>0.93063041552179904</v>
+        <v>0.19763120428060627</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.15">
@@ -13239,11 +13613,11 @@
       </c>
       <c r="S38">
         <f t="shared" si="6"/>
-        <v>6.7627095718149496E-2</v>
+        <v>2.6597466366721823E-2</v>
       </c>
       <c r="T38">
         <f t="shared" si="7"/>
-        <v>0.93237290428185049</v>
+        <v>0.1921247117920529</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.15">
@@ -13308,11 +13682,11 @@
       </c>
       <c r="S39">
         <f t="shared" si="6"/>
-        <v>6.5155752687238097E-2</v>
+        <v>2.4849684838336186E-2</v>
       </c>
       <c r="T39">
         <f t="shared" si="7"/>
-        <v>0.93484424731276183</v>
+        <v>0.18680196152426115</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.15">
@@ -13377,11 +13751,11 @@
       </c>
       <c r="S40">
         <f t="shared" si="6"/>
-        <v>6.198635141376356E-2</v>
+        <v>2.2853548910100056E-2</v>
       </c>
       <c r="T40">
         <f t="shared" si="7"/>
-        <v>0.93801364858623648</v>
+        <v>0.18119273812508413</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.15">
@@ -13446,11 +13820,11 @@
       </c>
       <c r="S41">
         <f t="shared" si="6"/>
-        <v>5.9806912267396525E-2</v>
+        <v>2.1340285498492706E-2</v>
       </c>
       <c r="T41">
         <f t="shared" si="7"/>
-        <v>0.94019308773260357</v>
+        <v>0.17576805687891331</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.15">
@@ -13515,11 +13889,11 @@
       </c>
       <c r="S42">
         <f t="shared" si="6"/>
-        <v>5.9290023563701846E-2</v>
+        <v>2.0568006975625958E-2</v>
       </c>
       <c r="T42">
         <f t="shared" si="7"/>
-        <v>0.94070997643629817</v>
+        <v>0.17097806245036051</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.15">
@@ -13584,11 +13958,11 @@
       </c>
       <c r="S43">
         <f t="shared" si="6"/>
-        <v>5.3020788106753175E-2</v>
+        <v>1.7637554086093438E-2</v>
       </c>
       <c r="T43">
         <f t="shared" si="7"/>
-        <v>0.94697921189324685</v>
+        <v>0.16504663665094313</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.15">
@@ -13653,11 +14027,11 @@
       </c>
       <c r="S44">
         <f t="shared" si="6"/>
-        <v>5.2390733037211173E-2</v>
+        <v>1.6808992108724888E-2</v>
       </c>
       <c r="T44">
         <f t="shared" si="7"/>
-        <v>0.9476092669627888</v>
+        <v>0.15929074773412802</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.15">
@@ -13722,11 +14096,11 @@
       </c>
       <c r="S45">
         <f t="shared" si="6"/>
-        <v>4.6076738183131141E-2</v>
+        <v>1.4241185968668413E-2</v>
       </c>
       <c r="T45">
         <f t="shared" si="7"/>
-        <v>0.95392326181686893</v>
+        <v>0.15447276601687571</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.15">
@@ -13791,11 +14165,11 @@
       </c>
       <c r="S46">
         <f t="shared" si="6"/>
-        <v>4.5492790658288748E-2</v>
+        <v>1.3656194745385167E-2</v>
       </c>
       <c r="T46">
         <f t="shared" si="7"/>
-        <v>0.95450720934171118</v>
+        <v>0.15012063381051446</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.15">
@@ -13860,11 +14234,11 @@
       </c>
       <c r="S47">
         <f t="shared" si="6"/>
-        <v>4.2518337357029437E-2</v>
+        <v>1.2404281474610283E-2</v>
       </c>
       <c r="T47">
         <f t="shared" si="7"/>
-        <v>0.95748166264297052</v>
+        <v>0.1463524030670609</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.15">
@@ -13929,11 +14303,11 @@
       </c>
       <c r="S48">
         <f t="shared" si="6"/>
-        <v>4.160110103070596E-2</v>
+        <v>1.1846017358576894E-2</v>
       </c>
       <c r="T48">
         <f t="shared" si="7"/>
-        <v>0.95839889896929398</v>
+        <v>0.14298415044052795</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.15">
@@ -13998,11 +14372,11 @@
       </c>
       <c r="S49">
         <f t="shared" si="6"/>
-        <v>3.9970009358718521E-2</v>
+        <v>1.100130509271186E-2</v>
       </c>
       <c r="T49">
         <f t="shared" si="7"/>
-        <v>0.96002999064128147</v>
+        <v>0.13844230219828008</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.15">
@@ -14067,11 +14441,11 @@
       </c>
       <c r="S50">
         <f t="shared" si="6"/>
-        <v>3.7165704293472171E-2</v>
+        <v>9.9441395617507929E-3</v>
       </c>
       <c r="T50">
         <f t="shared" si="7"/>
-        <v>0.9628342957065279</v>
+        <v>0.13497410251300215</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.15">
@@ -14136,11 +14510,11 @@
       </c>
       <c r="S51">
         <f t="shared" si="6"/>
-        <v>3.2437334141402256E-2</v>
+        <v>8.4504762145320503E-3</v>
       </c>
       <c r="T51">
         <f t="shared" si="7"/>
-        <v>0.96756266585859774</v>
+        <v>0.13206544072488424</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.15">
@@ -14205,11 +14579,11 @@
       </c>
       <c r="S52">
         <f t="shared" si="6"/>
-        <v>3.3734487167391483E-2</v>
+        <v>8.5658316557818207E-3</v>
       </c>
       <c r="T52">
         <f t="shared" si="7"/>
-        <v>0.96626551283260853</v>
+        <v>0.12854818684825703</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.15">
@@ -14274,11 +14648,11 @@
       </c>
       <c r="S53">
         <f t="shared" si="6"/>
-        <v>3.827583222295234E-2</v>
+        <v>9.629377424107001E-3</v>
       </c>
       <c r="T53">
         <f t="shared" si="7"/>
-        <v>0.96172416777704761</v>
+        <v>0.12676464668518692</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.15">
@@ -14343,11 +14717,11 @@
       </c>
       <c r="S54">
         <f t="shared" si="6"/>
-        <v>2.8298924602251189E-2</v>
+        <v>6.8229094814420879E-3</v>
       </c>
       <c r="T54">
         <f t="shared" si="7"/>
-        <v>0.97170107539774886</v>
+        <v>0.12274573601386321</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.15">
@@ -14412,11 +14786,11 @@
       </c>
       <c r="S55">
         <f t="shared" si="6"/>
-        <v>2.4949715964775226E-2</v>
+        <v>5.8603399380277831E-3</v>
       </c>
       <c r="T55">
         <f t="shared" si="7"/>
-        <v>0.97505028403522476</v>
+        <v>0.11999365149605276</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.15">
@@ -14481,11 +14855,11 @@
       </c>
       <c r="S56">
         <f t="shared" si="6"/>
-        <v>2.5473868303218163E-2</v>
+        <v>5.8547635776083733E-3</v>
       </c>
       <c r="T56">
         <f t="shared" si="7"/>
-        <v>0.97452613169678182</v>
+        <v>0.11734970597226539</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.15">
@@ -14550,11 +14924,11 @@
       </c>
       <c r="S57">
         <f t="shared" si="6"/>
-        <v>2.237011029669991E-2</v>
+        <v>5.0231064519818481E-3</v>
       </c>
       <c r="T57">
         <f t="shared" si="7"/>
-        <v>0.97762988970330011</v>
+        <v>0.11501454909321206</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.15">
@@ -14619,11 +14993,11 @@
       </c>
       <c r="S58">
         <f t="shared" si="6"/>
-        <v>2.1621490755743419E-2</v>
+        <v>4.7307453961636528E-3</v>
       </c>
       <c r="T58">
         <f t="shared" si="7"/>
-        <v>0.97837850924425651</v>
+        <v>0.11215661647588805</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.15">
@@ -14688,11 +15062,11 @@
       </c>
       <c r="S59">
         <f t="shared" si="6"/>
-        <v>2.013715895212782E-2</v>
+        <v>4.322321269091307E-3</v>
       </c>
       <c r="T59">
         <f t="shared" si="7"/>
-        <v>0.97986284104787225</v>
+        <v>0.11019406078574426</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.15">
@@ -14757,11 +15131,11 @@
       </c>
       <c r="S60">
         <f t="shared" si="6"/>
-        <v>2.3799495251546336E-2</v>
+        <v>5.0514136797079924E-3</v>
       </c>
       <c r="T60">
         <f t="shared" si="7"/>
-        <v>0.97620050474845366</v>
+        <v>0.10855710945768374</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.15">
@@ -14826,11 +15200,11 @@
       </c>
       <c r="S61">
         <f t="shared" si="6"/>
-        <v>2.102339765720225E-2</v>
+        <v>4.3331980132437428E-3</v>
       </c>
       <c r="T61">
         <f t="shared" si="7"/>
-        <v>0.97897660234279782</v>
+        <v>0.10571874428661106</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.15">
@@ -14895,11 +15269,11 @@
       </c>
       <c r="S62">
         <f t="shared" si="6"/>
-        <v>1.684210603190809E-2</v>
+        <v>3.3914336366861592E-3</v>
       </c>
       <c r="T62">
         <f t="shared" si="7"/>
-        <v>0.98315789396809183</v>
+        <v>0.1037251926494334</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.15">
@@ -14964,11 +15338,11 @@
       </c>
       <c r="S63">
         <f t="shared" si="6"/>
-        <v>1.5433954049463038E-2</v>
+        <v>3.0263813500247699E-3</v>
       </c>
       <c r="T63">
         <f t="shared" si="7"/>
-        <v>0.98456604595053687</v>
+        <v>0.10114987653368107</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.15">
@@ -15033,11 +15407,11 @@
       </c>
       <c r="S64">
         <f t="shared" si="6"/>
-        <v>1.578594076172218E-2</v>
+        <v>3.0433175717167246E-3</v>
       </c>
       <c r="T64">
         <f t="shared" si="7"/>
-        <v>0.98421405923827776</v>
+        <v>9.9412368919232663E-2</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.15">
@@ -15102,11 +15476,11 @@
       </c>
       <c r="S65">
         <f t="shared" si="6"/>
-        <v>1.3864851457144115E-2</v>
+        <v>2.6087537610682793E-3</v>
       </c>
       <c r="T65">
         <f t="shared" si="7"/>
-        <v>0.98613514854285589</v>
+        <v>9.7213898372216972E-2</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.15">
@@ -15171,11 +15545,11 @@
       </c>
       <c r="S66">
         <f t="shared" si="6"/>
-        <v>1.3024600519790539E-2</v>
+        <v>2.3909380604027483E-3</v>
       </c>
       <c r="T66">
         <f t="shared" si="7"/>
-        <v>0.9869753994802094</v>
+        <v>9.4925806361407516E-2</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.15">
@@ -15240,11 +15614,11 @@
       </c>
       <c r="S67">
         <f t="shared" si="6"/>
-        <v>1.1546450070625439E-2</v>
+        <v>2.0772858862497653E-3</v>
       </c>
       <c r="T67">
         <f t="shared" si="7"/>
-        <v>0.98845354992937462</v>
+        <v>9.3170431620533803E-2</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.15">
@@ -15309,11 +15683,11 @@
       </c>
       <c r="S68">
         <f t="shared" si="6"/>
-        <v>1.3005717636318897E-2</v>
+        <v>2.2926068490111782E-3</v>
       </c>
       <c r="T68">
         <f t="shared" si="7"/>
-        <v>0.98699428236368103</v>
+        <v>9.1155726116059904E-2</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.15">
@@ -15377,12 +15751,12 @@
         <v>0.94113370946666608</v>
       </c>
       <c r="S69">
-        <f t="shared" ref="S69:S116" si="14">H69/SUM(H69:I69)</f>
-        <v>9.8204567169608466E-3</v>
+        <f t="shared" ref="S69:S116" si="14">H69/$H$3</f>
+        <v>1.6896824942154304E-3</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T116" si="15">I69/SUM(H69:I69)</f>
-        <v>0.99017954328303925</v>
+        <f t="shared" ref="T69:T116" si="15">I69/$I$3</f>
+        <v>8.9260932997437065E-2</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.15">
@@ -15447,11 +15821,11 @@
       </c>
       <c r="S70">
         <f t="shared" si="14"/>
-        <v>5.3132454146272148E-3</v>
+        <v>8.9715819555279727E-4</v>
       </c>
       <c r="T70">
         <f t="shared" si="15"/>
-        <v>0.99468675458537281</v>
+        <v>8.7997339305450811E-2</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.15">
@@ -15516,11 +15890,11 @@
       </c>
       <c r="S71">
         <f t="shared" si="14"/>
-        <v>8.1218420115966236E-3</v>
+        <v>1.3466832361383419E-3</v>
       </c>
       <c r="T71">
         <f t="shared" si="15"/>
-        <v>0.99187815798840329</v>
+        <v>8.6167461150341171E-2</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.15">
@@ -15585,11 +15959,11 @@
       </c>
       <c r="S72">
         <f t="shared" si="14"/>
-        <v>8.7719684911756485E-3</v>
+        <v>1.4260588850007561E-3</v>
       </c>
       <c r="T72">
         <f t="shared" si="15"/>
-        <v>0.99122803150882444</v>
+        <v>8.4428296076175663E-2</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.15">
@@ -15654,11 +16028,11 @@
       </c>
       <c r="S73">
         <f t="shared" si="14"/>
-        <v>6.8574967979080619E-3</v>
+        <v>1.0940624097316067E-3</v>
       </c>
       <c r="T73">
         <f t="shared" si="15"/>
-        <v>0.99314250320209196</v>
+        <v>8.3016057635682095E-2</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.15">
@@ -15723,11 +16097,11 @@
       </c>
       <c r="S74">
         <f t="shared" si="14"/>
-        <v>8.6052815270512336E-3</v>
+        <v>1.3502985583971254E-3</v>
       </c>
       <c r="T74">
         <f t="shared" si="15"/>
-        <v>0.99139471847294891</v>
+        <v>8.1505210855414706E-2</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.15">
@@ -15792,11 +16166,11 @@
       </c>
       <c r="S75">
         <f t="shared" si="14"/>
-        <v>7.4714901654615203E-3</v>
+        <v>1.1511063575668343E-3</v>
       </c>
       <c r="T75">
         <f t="shared" si="15"/>
-        <v>0.99252850983453844</v>
+        <v>8.0117108597675818E-2</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.15">
@@ -15861,11 +16235,11 @@
       </c>
       <c r="S76">
         <f t="shared" si="14"/>
-        <v>3.6481302223875041E-3</v>
+        <v>5.4898791254303649E-4</v>
       </c>
       <c r="T76">
         <f t="shared" si="15"/>
-        <v>0.99635186977761248</v>
+        <v>7.8555978687853176E-2</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.15">
@@ -15930,11 +16304,11 @@
       </c>
       <c r="S77">
         <f t="shared" si="14"/>
-        <v>3.9295504279748565E-3</v>
+        <v>5.8140313416639E-4</v>
       </c>
       <c r="T77">
         <f t="shared" si="15"/>
-        <v>0.99607044957202517</v>
+        <v>7.7214455221786812E-2</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.15">
@@ -15999,11 +16373,11 @@
       </c>
       <c r="S78">
         <f t="shared" si="14"/>
-        <v>2.067476278843009E-3</v>
+        <v>3.0211173137108526E-4</v>
       </c>
       <c r="T78">
         <f t="shared" si="15"/>
-        <v>0.99793252372115693</v>
+        <v>7.6401570306908598E-2</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.15">
@@ -16068,11 +16442,11 @@
       </c>
       <c r="S79">
         <f t="shared" si="14"/>
-        <v>6.0452658814953049E-3</v>
+        <v>8.670429788055126E-4</v>
       </c>
       <c r="T79">
         <f t="shared" si="15"/>
-        <v>0.99395473411850477</v>
+        <v>7.4690588115519138E-2</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.15">
@@ -16137,11 +16511,11 @@
       </c>
       <c r="S80">
         <f t="shared" si="14"/>
-        <v>3.6835342198571165E-3</v>
+        <v>5.2052281070710761E-4</v>
       </c>
       <c r="T80">
         <f t="shared" si="15"/>
-        <v>0.99631646578014288</v>
+        <v>7.3764332824301032E-2</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.15">
@@ -16206,11 +16580,11 @@
       </c>
       <c r="S81">
         <f t="shared" si="14"/>
-        <v>2.0008236745636563E-3</v>
+        <v>2.7582933169674007E-4</v>
       </c>
       <c r="T81">
         <f t="shared" si="15"/>
-        <v>0.99799917632543633</v>
+        <v>7.2083500071360607E-2</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.15">
@@ -16275,11 +16649,11 @@
       </c>
       <c r="S82">
         <f t="shared" si="14"/>
-        <v>7.8135328061041502E-3</v>
+        <v>1.0823925908675445E-3</v>
       </c>
       <c r="T82">
         <f t="shared" si="15"/>
-        <v>0.9921864671938958</v>
+        <v>7.2011975251434046E-2</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.15">
@@ -16344,11 +16718,11 @@
       </c>
       <c r="S83">
         <f t="shared" si="14"/>
-        <v>-3.4188124522389301E-3</v>
+        <v>-4.5461872091773144E-4</v>
       </c>
       <c r="T83">
         <f t="shared" si="15"/>
-        <v>1.003418812452239</v>
+        <v>6.9908233985833276E-2</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.15">
@@ -16413,11 +16787,11 @@
       </c>
       <c r="S84">
         <f t="shared" si="14"/>
-        <v>-1.1174784832619603E-3</v>
+        <v>-1.4653145793372676E-4</v>
       </c>
       <c r="T84">
         <f t="shared" si="15"/>
-        <v>1.0011174784832619</v>
+        <v>6.8778198827904091E-2</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.15">
@@ -16482,11 +16856,11 @@
       </c>
       <c r="S85">
         <f t="shared" si="14"/>
-        <v>-4.0360913508855518E-3</v>
+        <v>-5.1962502308746739E-4</v>
       </c>
       <c r="T85">
         <f t="shared" si="15"/>
-        <v>1.0040360913508855</v>
+        <v>6.7725535453470417E-2</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.15">
@@ -16551,11 +16925,11 @@
       </c>
       <c r="S86">
         <f t="shared" si="14"/>
-        <v>-1.845642815085604E-3</v>
+        <v>-2.3467007461771172E-4</v>
       </c>
       <c r="T86">
         <f t="shared" si="15"/>
-        <v>1.0018456428150855</v>
+        <v>6.6739803284718915E-2</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.15">
@@ -16620,11 +16994,11 @@
       </c>
       <c r="S87">
         <f t="shared" si="14"/>
-        <v>-6.6168751281178023E-3</v>
+        <v>-8.2039080079501455E-4</v>
       </c>
       <c r="T87">
         <f t="shared" si="15"/>
-        <v>1.0066168751281179</v>
+        <v>6.5389211924849727E-2</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.15">
@@ -16689,11 +17063,11 @@
       </c>
       <c r="S88">
         <f t="shared" si="14"/>
-        <v>-7.3358866194824079E-3</v>
+        <v>-8.8916469985741401E-4</v>
       </c>
       <c r="T88">
         <f t="shared" si="15"/>
-        <v>1.0073358866194824</v>
+        <v>6.3970237314344924E-2</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.15">
@@ -16758,11 +17132,11 @@
       </c>
       <c r="S89">
         <f t="shared" si="14"/>
-        <v>-6.6584405164736224E-3</v>
+        <v>-8.0628665237080866E-4</v>
       </c>
       <c r="T89">
         <f t="shared" si="15"/>
-        <v>1.0066584405164736</v>
+        <v>6.3866503255725932E-2</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.15">
@@ -16827,11 +17201,11 @@
       </c>
       <c r="S90">
         <f t="shared" si="14"/>
-        <v>-6.1111134138895481E-3</v>
+        <v>-7.2118295418131079E-4</v>
       </c>
       <c r="T90">
         <f t="shared" si="15"/>
-        <v>1.0061111134138896</v>
+        <v>6.2207838179884171E-2</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.15">
@@ -16896,11 +17270,11 @@
       </c>
       <c r="S91">
         <f t="shared" si="14"/>
-        <v>-8.2394258109472485E-3</v>
+        <v>-9.5360542475682601E-4</v>
       </c>
       <c r="T91">
         <f t="shared" si="15"/>
-        <v>1.0082394258109473</v>
+        <v>6.1137756052293053E-2</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.15">
@@ -16965,11 +17339,11 @@
       </c>
       <c r="S92">
         <f t="shared" si="14"/>
-        <v>-7.7614445921291193E-3</v>
+        <v>-8.8072036402100007E-4</v>
       </c>
       <c r="T92">
         <f t="shared" si="15"/>
-        <v>1.007761444592129</v>
+        <v>5.9913855701643426E-2</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.15">
@@ -17034,11 +17408,11 @@
       </c>
       <c r="S93">
         <f t="shared" si="14"/>
-        <v>-9.2195214645028889E-3</v>
+        <v>-1.0313259827952035E-3</v>
       </c>
       <c r="T93">
         <f t="shared" si="15"/>
-        <v>1.0092195214645028</v>
+        <v>5.9148982147678976E-2</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.15">
@@ -17103,11 +17477,11 @@
       </c>
       <c r="S94">
         <f t="shared" si="14"/>
-        <v>-1.386268384600596E-2</v>
+        <v>-1.5166866750557198E-3</v>
       </c>
       <c r="T94">
         <f t="shared" si="15"/>
-        <v>1.0138626838460061</v>
+        <v>5.8116806867631897E-2</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.15">
@@ -17172,11 +17546,11 @@
       </c>
       <c r="S95">
         <f t="shared" si="14"/>
-        <v>-1.1336792415944106E-2</v>
+        <v>-1.226121086291867E-3</v>
       </c>
       <c r="T95">
         <f t="shared" si="15"/>
-        <v>1.0113367924159442</v>
+        <v>5.7307706424926989E-2</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.15">
@@ -17241,11 +17615,11 @@
       </c>
       <c r="S96">
         <f t="shared" si="14"/>
-        <v>-8.1058381969906241E-3</v>
+        <v>-8.6158510311094589E-4</v>
       </c>
       <c r="T96">
         <f t="shared" si="15"/>
-        <v>1.0081058381969905</v>
+        <v>5.6141037504305248E-2</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.15">
@@ -17310,11 +17684,11 @@
       </c>
       <c r="S97">
         <f t="shared" si="14"/>
-        <v>-5.0339458258408139E-3</v>
+        <v>-5.3461174408303818E-4</v>
       </c>
       <c r="T97">
         <f t="shared" si="15"/>
-        <v>1.0050339458258408</v>
+        <v>5.5922263502371006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.15">
@@ -17379,11 +17753,11 @@
       </c>
       <c r="S98">
         <f t="shared" si="14"/>
-        <v>-1.5826928155009752E-2</v>
+        <v>-1.6159307071269889E-3</v>
       </c>
       <c r="T98">
         <f t="shared" si="15"/>
-        <v>1.0158269281550099</v>
+        <v>5.4340030462871697E-2</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.15">
@@ -17448,11 +17822,11 @@
       </c>
       <c r="S99">
         <f t="shared" si="14"/>
-        <v>-1.4931608666268435E-2</v>
+        <v>-1.5029023937816752E-3</v>
       </c>
       <c r="T99">
         <f t="shared" si="15"/>
-        <v>1.0149316086662685</v>
+        <v>5.3522329658566438E-2</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.15">
@@ -17516,12 +17890,12 @@
         <v>0.96618945559170777</v>
       </c>
       <c r="S100">
-        <f>H100/SUM(H100:I100)</f>
-        <v>-1.4819589640607011E-2</v>
+        <f t="shared" si="14"/>
+        <v>-1.4645192717902447E-3</v>
       </c>
       <c r="T100">
         <f t="shared" si="15"/>
-        <v>1.0148195896406069</v>
+        <v>5.2543839978663902E-2</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.15">
@@ -17586,11 +17960,11 @@
       </c>
       <c r="S101">
         <f t="shared" si="14"/>
-        <v>-1.7690027737375925E-2</v>
+        <v>-1.7140441680575517E-3</v>
       </c>
       <c r="T101">
         <f t="shared" si="15"/>
-        <v>1.0176900277373759</v>
+        <v>5.166340991274497E-2</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.15">
@@ -17655,11 +18029,11 @@
       </c>
       <c r="S102">
         <f t="shared" si="14"/>
-        <v>-1.4113373087192427E-2</v>
+        <v>-1.3514931653688812E-3</v>
       </c>
       <c r="T102">
         <f t="shared" si="15"/>
-        <v>1.0141133730871925</v>
+        <v>5.087958903356448E-2</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.15">
@@ -17724,11 +18098,11 @@
       </c>
       <c r="S103">
         <f t="shared" si="14"/>
-        <v>-1.2729340766806287E-2</v>
+        <v>-1.2082021994602075E-3</v>
       </c>
       <c r="T103">
         <f t="shared" si="15"/>
-        <v>1.0127293407668063</v>
+        <v>5.0361789704317671E-2</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.15">
@@ -17793,11 +18167,11 @@
       </c>
       <c r="S104">
         <f t="shared" si="14"/>
-        <v>-2.0499697144649678E-2</v>
+        <v>-1.8919461428232487E-3</v>
       </c>
       <c r="T104">
         <f t="shared" si="15"/>
-        <v>1.0204996971446498</v>
+        <v>4.9345580005984886E-2</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.15">
@@ -17862,11 +18236,11 @@
       </c>
       <c r="S105">
         <f t="shared" si="14"/>
-        <v>-1.7836658182710092E-2</v>
+        <v>-1.6299949952690821E-3</v>
       </c>
       <c r="T105">
         <f t="shared" si="15"/>
-        <v>1.0178366581827101</v>
+        <v>4.8733199250979721E-2</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.15">
@@ -17931,11 +18305,11 @@
       </c>
       <c r="S106">
         <f t="shared" si="14"/>
-        <v>-6.0341558017005777E-4</v>
+        <v>-5.5914797575390302E-5</v>
       </c>
       <c r="T106">
         <f t="shared" si="15"/>
-        <v>1.00060341558017</v>
+        <v>4.8578742888634022E-2</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.15">
@@ -18000,11 +18374,11 @@
       </c>
       <c r="S107">
         <f t="shared" si="14"/>
-        <v>-1.8959902157590729E-2</v>
+        <v>-1.6883789173933476E-3</v>
       </c>
       <c r="T107">
         <f t="shared" si="15"/>
-        <v>1.0189599021575908</v>
+        <v>4.7540634776485936E-2</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.15">
@@ -18069,11 +18443,11 @@
       </c>
       <c r="S108">
         <f t="shared" si="14"/>
-        <v>-1.8798260351551258E-2</v>
+        <v>-1.6538679845826269E-3</v>
       </c>
       <c r="T108">
         <f t="shared" si="15"/>
-        <v>1.0187982603515513</v>
+        <v>4.6961875001480413E-2</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.15">
@@ -18138,11 +18512,11 @@
       </c>
       <c r="S109">
         <f t="shared" si="14"/>
-        <v>-1.9502086927718005E-2</v>
+        <v>-1.6933652162221861E-3</v>
       </c>
       <c r="T109">
         <f t="shared" si="15"/>
-        <v>1.019502086927718</v>
+        <v>4.6380104120127427E-2</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.15">
@@ -18207,11 +18581,11 @@
       </c>
       <c r="S110">
         <f t="shared" si="14"/>
-        <v>-1.7330274149934096E-2</v>
+        <v>-1.4808281857825703E-3</v>
       </c>
       <c r="T110">
         <f t="shared" si="15"/>
-        <v>1.0173302741499342</v>
+        <v>4.554442896192451E-2</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.15">
@@ -18276,11 +18650,11 @@
       </c>
       <c r="S111">
         <f t="shared" si="14"/>
-        <v>-2.045026433621655E-2</v>
+        <v>-1.7208310193532275E-3</v>
       </c>
       <c r="T111">
         <f t="shared" si="15"/>
-        <v>1.0204502643362166</v>
+        <v>4.4988881494472152E-2</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.15">
@@ -18345,11 +18719,11 @@
       </c>
       <c r="S112">
         <f t="shared" si="14"/>
-        <v>-2.2254188999769532E-2</v>
+        <v>-1.8410959424589423E-3</v>
       </c>
       <c r="T112">
         <f t="shared" si="15"/>
-        <v>1.0222541889997694</v>
+        <v>4.4309576700031321E-2</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.15">
@@ -18414,11 +18788,11 @@
       </c>
       <c r="S113">
         <f t="shared" si="14"/>
-        <v>-2.8851551523789022E-2</v>
+        <v>-2.3385365723810753E-3</v>
       </c>
       <c r="T113">
         <f t="shared" si="15"/>
-        <v>1.028851551523789</v>
+        <v>4.3691983779543052E-2</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.15">
@@ -18483,11 +18857,11 @@
       </c>
       <c r="S114">
         <f t="shared" si="14"/>
-        <v>-5.6177022749244456E-3</v>
+        <v>-4.647515898403691E-4</v>
       </c>
       <c r="T114">
         <f t="shared" si="15"/>
-        <v>1.0056177022749244</v>
+        <v>4.3588219423888686E-2</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.15">
@@ -18552,11 +18926,11 @@
       </c>
       <c r="S115">
         <f t="shared" si="14"/>
-        <v>-2.5354280219634488E-2</v>
+        <v>-1.9961397238953105E-3</v>
       </c>
       <c r="T115">
         <f t="shared" si="15"/>
-        <v>1.0253542802196345</v>
+        <v>4.2294866021419603E-2</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.15">
@@ -18621,11 +18995,11 @@
       </c>
       <c r="S116">
         <f t="shared" si="14"/>
-        <v>-1.012927743543517E-2</v>
+        <v>-8.1471333873026595E-4</v>
       </c>
       <c r="T116">
         <f t="shared" si="15"/>
-        <v>1.0101292774354351</v>
+        <v>4.2567424328361102E-2</v>
       </c>
     </row>
   </sheetData>

--- a/sample_data/two_monomer_systems/pdb-5-063.xlsx
+++ b/sample_data/two_monomer_systems/pdb-5-063.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suprajachittari/Documents/GitHub/prism/sample_data/two_monomer_systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB60A46-6F66-5E4E-A960-1A668135C408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8E66C4-D964-DD4E-89A4-96E787D6CD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43180" yWindow="6060" windowWidth="28800" windowHeight="16020" xr2:uid="{3567584D-2EA3-42F9-B6B0-BE115D4FDBF5}"/>
+    <workbookView xWindow="12400" yWindow="660" windowWidth="28800" windowHeight="16280" activeTab="2" xr2:uid="{3567584D-2EA3-42F9-B6B0-BE115D4FDBF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -5313,7 +5313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA4CEDA-8E27-5F40-958F-ACC31F5E09D2}">
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A65" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
@@ -11032,7 +11032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BC1AAB-38BF-4027-ADF4-0695FD99321C}">
   <dimension ref="A1:T116"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
